--- a/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 лгрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,10,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\25,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3DD8F-AB62-4B95-B6C9-886465AB33AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B3A591-1852-4E3E-80E2-32C565EA4C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,10 +485,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -4538,9 +4542,9 @@
   </sheetPr>
   <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE67" sqref="AE67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4954,7 +4958,7 @@
         <v>100.15779999999999</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" ref="AC7:AD70" si="7">R7*K7</f>
+        <f t="shared" ref="AC7:AC70" si="7">R7*K7</f>
         <v>320</v>
       </c>
       <c r="AD7" s="2">
@@ -9648,7 +9652,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AC71" s="2">
-        <f t="shared" ref="AC71:AD95" si="20">R71*K71</f>
+        <f t="shared" ref="AC71:AC95" si="20">R71*K71</f>
         <v>114</v>
       </c>
       <c r="AD71" s="2">
